--- a/results/results_4_transfer_learning_subsets_tz1_domain_importance.xlsx
+++ b/results/results_4_transfer_learning_subsets_tz1_domain_importance.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA15E1C-913A-4AA8-A455-479161C27037}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096C7224-CA6C-4031-B9AB-DF5B254E6E8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="380" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="m4_m_micro" sheetId="1" r:id="rId1"/>
+    <sheet name="m4_m_industry" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t>N</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Method</t>
   </si>
@@ -60,21 +57,12 @@
     <t>use feat</t>
   </si>
   <si>
-    <t>passes</t>
-  </si>
-  <si>
     <t>DeepAR</t>
   </si>
   <si>
     <t>train data</t>
   </si>
   <si>
-    <t>m4_monthly_micro</t>
-  </si>
-  <si>
-    <t>eval data</t>
-  </si>
-  <si>
     <t>OWA</t>
   </si>
   <si>
@@ -84,18 +72,34 @@
     <t>wQL[0.9]</t>
   </si>
   <si>
-    <t>m4_monthly</t>
-  </si>
-  <si>
-    <t>True</t>
+    <t>m4_monthly_atm</t>
+  </si>
+  <si>
+    <t>m4_monthly_industry</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>passes (training)</t>
+  </si>
+  <si>
+    <t>N (train)</t>
+  </si>
+  <si>
+    <t>N (test)</t>
+  </si>
+  <si>
+    <t>test data (evaluation)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -148,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -161,6 +165,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -441,136 +447,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.90625" customWidth="1"/>
-    <col min="11" max="11" width="7.90625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="38.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.1796875" style="4" customWidth="1"/>
+    <col min="1" max="2" width="8.36328125" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" customWidth="1"/>
+    <col min="12" max="12" width="7.90625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.36328125" customWidth="1"/>
+    <col min="14" max="14" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.1796875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L3" s="3"/>
+      <c r="O3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="K2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="K3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="K4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="K5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="K6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C7" s="2"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L4" s="3"/>
+      <c r="O4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L5" s="3"/>
+      <c r="O5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L6" s="3"/>
+      <c r="O6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="M7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="L10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="F7" s="2"/>
+      <c r="O7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>48000</v>
+      </c>
+      <c r="B11">
+        <v>10017</v>
+      </c>
+      <c r="J11">
+        <v>42</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11" s="4">
+        <v>50</v>
+      </c>
+      <c r="M11" s="7">
+        <f>(32*L11*K11)/A11</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="N11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>10017</v>
+      </c>
+      <c r="M23" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A9:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
